--- a/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>Serie</t>
   </si>
@@ -1169,6 +1169,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:H379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11360,6 +11363,32 @@
         <v>579</v>
       </c>
     </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>385</v>
+      </c>
+      <c r="B379">
+        <v>174513</v>
+      </c>
+      <c r="C379">
+        <v>161171</v>
+      </c>
+      <c r="D379">
+        <v>22786</v>
+      </c>
+      <c r="E379">
+        <v>138385</v>
+      </c>
+      <c r="F379">
+        <v>537</v>
+      </c>
+      <c r="G379">
+        <v>12267</v>
+      </c>
+      <c r="H379">
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>Serie</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:H380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11389,6 +11392,32 @@
         <v>538</v>
       </c>
     </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>386</v>
+      </c>
+      <c r="B380">
+        <v>176218</v>
+      </c>
+      <c r="C380">
+        <v>162727</v>
+      </c>
+      <c r="D380">
+        <v>23570</v>
+      </c>
+      <c r="E380">
+        <v>139156</v>
+      </c>
+      <c r="F380">
+        <v>524</v>
+      </c>
+      <c r="G380">
+        <v>12482</v>
+      </c>
+      <c r="H380">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda nacional 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>Serie</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11418,6 +11421,32 @@
         <v>485</v>
       </c>
     </row>
+    <row r="381" spans="1:8">
+      <c r="A381" t="s">
+        <v>387</v>
+      </c>
+      <c r="B381">
+        <v>177500</v>
+      </c>
+      <c r="C381">
+        <v>164084</v>
+      </c>
+      <c r="D381">
+        <v>23884</v>
+      </c>
+      <c r="E381">
+        <v>140200</v>
+      </c>
+      <c r="F381">
+        <v>513</v>
+      </c>
+      <c r="G381">
+        <v>12505</v>
+      </c>
+      <c r="H381">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
